--- a/Data..xlsx
+++ b/Data..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\Desktop\inzynierka\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B0052-2B76-46AE-ABF5-8B1A2CA00C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C568CD0-E251-4ED2-94C7-7999A41CC529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15252" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{540AF522-C262-4D17-B720-FB708D8C61D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{540AF522-C262-4D17-B720-FB708D8C61D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t xml:space="preserve">100x100 </t>
   </si>
@@ -74,14 +74,54 @@
     <t>LRCN - tricks_data_set_osika_no_bg_grey_aug - accuracy</t>
   </si>
   <si>
-    <t>200x200 30 0,72</t>
+    <t>LRCN</t>
+  </si>
+  <si>
+    <t>ConvLSTM</t>
+  </si>
+  <si>
+    <t>CONVLSTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tricks_data_set_osika </t>
+  </si>
+  <si>
+    <t>tricks_data_set_osika_no_bg_grey_aug</t>
+  </si>
+  <si>
+    <t>tricks_data_set_osika_no_bg_bgr_aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          FRAME_SIZE
+SEQ_LEN</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>Kolumna2</t>
+  </si>
+  <si>
+    <t>Kolumna3</t>
+  </si>
+  <si>
+    <t>Kolumna4</t>
+  </si>
+  <si>
+    <t>Kolumna5</t>
+  </si>
+  <si>
+    <t>100x100</t>
+  </si>
+  <si>
+    <t>150x1502</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +137,32 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -107,12 +173,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,20 +186,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -150,7 +286,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -160,7 +296,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -170,6 +306,294 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -177,6 +601,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -185,6 +625,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -193,6 +649,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -201,6 +673,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -209,6 +697,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -217,42 +721,18 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -278,74 +758,122 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED6ABA84-4D0A-42C7-85A3-5B513A95B2CF}" name="Tabela1" displayName="Tabela1" ref="F3:H7" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED6ABA84-4D0A-42C7-85A3-5B513A95B2CF}" name="Tabela1" displayName="Tabela1" ref="F3:H7" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="F3:H7" xr:uid="{ED6ABA84-4D0A-42C7-85A3-5B513A95B2CF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{68F025E6-5EAE-486E-ADAE-6A92CB595FBA}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{68F025E6-5EAE-486E-ADAE-6A92CB595FBA}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="55"/>
     <tableColumn id="2" xr3:uid="{FD282069-A0DA-488C-BE4A-C5BBC67C389D}" name="100x100 "/>
     <tableColumn id="3" xr3:uid="{3E3A4119-930D-4C2C-8371-E579B9085D7B}" name="150x150"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2BEE9B6B-67BA-4853-8F9B-D150E7A92DCB}" name="Tabela10" displayName="Tabela10" ref="F26:J27" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="F26:J27" xr:uid="{2BEE9B6B-67BA-4853-8F9B-D150E7A92DCB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EDB1586F-A1D8-4E52-9F6E-30E5FA9D5EC5}" name="Kolumna1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A5790F62-843E-42F4-A5F6-9BDC9DA07536}" name="Kolumna2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0B1C330A-4A63-4243-B352-FDAD7AC02D55}" name="Kolumna3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3A5AD3DE-AB27-4A86-8C18-C5F1CD8A19C7}" name="Kolumna4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8B4A6AF0-0365-4436-8CF2-3E8D07404DE9}" name="Kolumna5" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D4859E7C-6F73-46B5-B881-CD31EABC2B44}" name="Tabela2" displayName="Tabela2" ref="F10:H14" totalsRowShown="0" headerRowDxfId="54">
+  <autoFilter ref="F10:H14" xr:uid="{D4859E7C-6F73-46B5-B881-CD31EABC2B44}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{45FB4C5B-9E4A-417F-A220-184B7F8AE146}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{6A7E8C71-3091-4ABE-8F7C-4B6638232428}" name="100x100 "/>
+    <tableColumn id="3" xr3:uid="{B73DE655-82EA-422F-92A6-6292785BBDAE}" name="150x150"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48C9B3F3-02C9-430A-B857-C0AC157107F6}" name="Tabela3" displayName="Tabela3" ref="F17:H21" totalsRowShown="0" headerRowDxfId="52">
+  <autoFilter ref="F17:H21" xr:uid="{48C9B3F3-02C9-430A-B857-C0AC157107F6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{47F50008-70B6-4853-8332-6F1BDEA1D907}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{52C58EF5-5233-4ED6-903B-53E768BC7C24}" name="100x100 "/>
+    <tableColumn id="3" xr3:uid="{EF1FEAAC-029D-42DF-9559-5623BBA35C71}" name="150x150"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A7BA3015-02AF-4547-ADF9-4A54DF8F7D4A}" name="Tabela4" displayName="Tabela4" ref="J17:L21" totalsRowShown="0" headerRowDxfId="50">
+  <autoFilter ref="J17:L21" xr:uid="{A7BA3015-02AF-4547-ADF9-4A54DF8F7D4A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E6E55EC7-048B-441A-B453-B48C3F9164D2}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{16E3011E-AA5F-46F3-B773-EB796F610E30}" name="100x100 "/>
+    <tableColumn id="3" xr3:uid="{501257F5-9FF5-4F9A-8938-CC6FD23848C5}" name="150x150"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{84851482-DBEF-4580-92E2-AE80CFEB4791}" name="Tabela5" displayName="Tabela5" ref="J10:L14" totalsRowShown="0" headerRowDxfId="48">
+  <autoFilter ref="J10:L14" xr:uid="{84851482-DBEF-4580-92E2-AE80CFEB4791}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D6BA30DA-0140-4676-869F-C2A4DED8AC57}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{456A8B9B-6BE7-4047-9791-A3F304E83B3E}" name="100x100 "/>
+    <tableColumn id="3" xr3:uid="{BF727028-F642-4DF6-A7A8-F6D455664811}" name="150x150"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{391997FF-B9C9-4D81-B2E3-68A748F3F87F}" name="Tabela7" displayName="Tabela7" ref="J3:L7" totalsRowShown="0" headerRowDxfId="46">
+  <autoFilter ref="J3:L7" xr:uid="{391997FF-B9C9-4D81-B2E3-68A748F3F87F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ED5AEACC-ECFE-40E8-8A1F-38D5C186F2E4}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{80711FDA-7BE0-4FE1-93DE-A32B45A682EC}" name="100x100 "/>
+    <tableColumn id="3" xr3:uid="{DC09630A-324B-4BC2-9A17-B4A28116E079}" name="150x150"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5D62144-CE6C-4A59-A974-B07B8353265F}" name="Tabela17" displayName="Tabela17" ref="F28:J40" totalsRowShown="0" headerRowDxfId="44">
+  <autoFilter ref="F28:J40" xr:uid="{A5D62144-CE6C-4A59-A974-B07B8353265F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7CF6E2B5-C148-454B-A6D0-7D3968A2310D}" name="                          FRAME_SIZE_x000a_SEQ_LEN" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{9AA79B26-CB37-4796-A771-6237679BD69E}" name="100x100 "/>
+    <tableColumn id="3" xr3:uid="{7CC44233-3F94-4A26-8E61-DCC0197DDCFA}" name="150x150"/>
+    <tableColumn id="4" xr3:uid="{A283EDC3-5FE2-4544-8CD2-D759CD4DB2CC}" name="100x100"/>
+    <tableColumn id="5" xr3:uid="{2247B789-94E0-4E3F-8CF5-80729AA486E9}" name="150x1502"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3D7DD57F-72F9-473E-954F-0A49218A32CB}" name="Tabela8" displayName="Tabela8" ref="F44:F45" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="F44:F45" xr:uid="{3D7DD57F-72F9-473E-954F-0A49218A32CB}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{AF128EE7-4355-412D-9F80-4C9D40696764}" name="Kolumna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D4859E7C-6F73-46B5-B881-CD31EABC2B44}" name="Tabela2" displayName="Tabela2" ref="F10:H14" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="F10:H14" xr:uid="{D4859E7C-6F73-46B5-B881-CD31EABC2B44}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{45FB4C5B-9E4A-417F-A220-184B7F8AE146}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{6A7E8C71-3091-4ABE-8F7C-4B6638232428}" name="100x100 "/>
-    <tableColumn id="3" xr3:uid="{B73DE655-82EA-422F-92A6-6292785BBDAE}" name="150x150"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4E0EC5D8-4DA8-4660-8049-E7FF897A46A1}" name="Tabela9" displayName="Tabela9" ref="E26:E40" totalsRowShown="0">
+  <autoFilter ref="E26:E40" xr:uid="{4E0EC5D8-4DA8-4660-8049-E7FF897A46A1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{70CBB529-CC6E-4556-956B-C7BBEA308A5A}" name="Kolumna1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48C9B3F3-02C9-430A-B857-C0AC157107F6}" name="Tabela3" displayName="Tabela3" ref="F17:H21" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="F17:H21" xr:uid="{48C9B3F3-02C9-430A-B857-C0AC157107F6}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{47F50008-70B6-4853-8332-6F1BDEA1D907}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{52C58EF5-5233-4ED6-903B-53E768BC7C24}" name="100x100 "/>
-    <tableColumn id="3" xr3:uid="{EF1FEAAC-029D-42DF-9559-5623BBA35C71}" name="150x150"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A7BA3015-02AF-4547-ADF9-4A54DF8F7D4A}" name="Tabela4" displayName="Tabela4" ref="J17:L21" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="J17:L21" xr:uid="{A7BA3015-02AF-4547-ADF9-4A54DF8F7D4A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E6E55EC7-048B-441A-B453-B48C3F9164D2}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{16E3011E-AA5F-46F3-B773-EB796F610E30}" name="100x100 "/>
-    <tableColumn id="3" xr3:uid="{501257F5-9FF5-4F9A-8938-CC6FD23848C5}" name="150x150"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{84851482-DBEF-4580-92E2-AE80CFEB4791}" name="Tabela5" displayName="Tabela5" ref="J10:L14" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="J10:L14" xr:uid="{84851482-DBEF-4580-92E2-AE80CFEB4791}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D6BA30DA-0140-4676-869F-C2A4DED8AC57}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{456A8B9B-6BE7-4047-9791-A3F304E83B3E}" name="100x100 "/>
-    <tableColumn id="3" xr3:uid="{BF727028-F642-4DF6-A7A8-F6D455664811}" name="150x150"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{391997FF-B9C9-4D81-B2E3-68A748F3F87F}" name="Tabela7" displayName="Tabela7" ref="J3:L7" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="J3:L7" xr:uid="{391997FF-B9C9-4D81-B2E3-68A748F3F87F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{ED5AEACC-ECFE-40E8-8A1F-38D5C186F2E4}" name="SEQ_LEN\FRAME_SIZE" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{80711FDA-7BE0-4FE1-93DE-A32B45A682EC}" name="100x100 "/>
-    <tableColumn id="3" xr3:uid="{DC09630A-324B-4BC2-9A17-B4A28116E079}" name="150x150"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -666,27 +1194,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187E7412-ECF2-40DC-B8E8-F8CDB438AF6F}">
-  <dimension ref="E2:L21"/>
+  <dimension ref="C1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="7" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -694,31 +1228,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="2">
@@ -730,9 +1264,6 @@
       <c r="H4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
       <c r="J4" s="2">
         <v>30</v>
       </c>
@@ -742,8 +1273,11 @@
       <c r="L4">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F5" s="2">
         <v>40</v>
       </c>
@@ -763,7 +1297,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="6" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3">
         <v>50</v>
       </c>
@@ -783,7 +1317,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F7" s="2">
         <v>60</v>
       </c>
@@ -803,7 +1337,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>8</v>
       </c>
@@ -811,30 +1345,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>30</v>
       </c>
@@ -854,7 +1385,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F12" s="2">
         <v>40</v>
       </c>
@@ -874,13 +1405,13 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
       <c r="F13" s="3">
         <v>50</v>
       </c>
       <c r="G13">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="H13">
         <v>0.64</v>
@@ -896,7 +1427,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F14" s="2">
         <v>60</v>
       </c>
@@ -913,7 +1444,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>9</v>
       </c>
@@ -922,22 +1453,22 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -958,7 +1489,7 @@
         <v>0.76</v>
       </c>
       <c r="L18">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
@@ -976,6 +1507,9 @@
       </c>
       <c r="K19">
         <v>0.68</v>
+      </c>
+      <c r="L19">
+        <v>0.76</v>
       </c>
     </row>
     <row r="20" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1016,32 +1550,409 @@
       <c r="K21">
         <v>0.56999999999999995</v>
       </c>
+      <c r="L21">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="26" spans="5:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="5:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E28" s="6"/>
+      <c r="F28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I29">
+        <v>0.65</v>
+      </c>
+      <c r="J29">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="6"/>
+      <c r="F30" s="2">
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>0.61</v>
+      </c>
+      <c r="H30">
+        <v>0.61</v>
+      </c>
+      <c r="I30">
+        <v>0.66</v>
+      </c>
+      <c r="J30">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="6"/>
+      <c r="F31" s="3">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>0.52</v>
+      </c>
+      <c r="I31">
+        <v>0.66</v>
+      </c>
+      <c r="J31">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="6"/>
+      <c r="F32" s="2">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>0.53</v>
+      </c>
+      <c r="H32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I32">
+        <v>0.7</v>
+      </c>
+      <c r="J32">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I33">
+        <v>0.72</v>
+      </c>
+      <c r="J33">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E34" s="6"/>
+      <c r="F34" s="2">
+        <v>40</v>
+      </c>
+      <c r="G34">
+        <v>0.63</v>
+      </c>
+      <c r="H34">
+        <v>0.63</v>
+      </c>
+      <c r="I34">
+        <v>0.64</v>
+      </c>
+      <c r="J34">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="6"/>
+      <c r="F35" s="3">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>0.81</v>
+      </c>
+      <c r="H35">
+        <v>0.64</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="6"/>
+      <c r="F36" s="2">
+        <v>60</v>
+      </c>
+      <c r="G36">
+        <v>0.6</v>
+      </c>
+      <c r="H36">
+        <v>0.67</v>
+      </c>
+      <c r="I36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J36">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="2">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>0.64</v>
+      </c>
+      <c r="H37">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I37">
+        <v>0.76</v>
+      </c>
+      <c r="J37">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="6"/>
+      <c r="F38" s="2">
+        <v>40</v>
+      </c>
+      <c r="G38">
+        <v>0.64</v>
+      </c>
+      <c r="H38">
+        <v>0.59</v>
+      </c>
+      <c r="I38">
+        <v>0.68</v>
+      </c>
+      <c r="J38">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="6"/>
+      <c r="F39" s="3">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H39">
+        <v>0.61</v>
+      </c>
+      <c r="I39">
+        <v>0.62</v>
+      </c>
+      <c r="J39">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="2">
+        <v>60</v>
+      </c>
+      <c r="G40">
+        <v>0.66</v>
+      </c>
+      <c r="H40">
+        <v>0.64</v>
+      </c>
+      <c r="I40">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J40">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G4:H7 K4:L7 G11:H14 K11:L14 G18:H21 K18:L21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="between">
       <formula>0.6</formula>
       <formula>0.74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="lessThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H40">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="between">
+      <formula>0.6</formula>
+      <formula>0.74</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="lessThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H36">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="between">
+      <formula>0.6</formula>
+      <formula>0.74</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="lessThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:H40">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="between">
+      <formula>0.6</formula>
+      <formula>0.74</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:J32">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="between">
+      <formula>0.6</formula>
+      <formula>0.74</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="lessThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:J36">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="between">
+      <formula>0.6</formula>
+      <formula>0.74</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:J40">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
+      <formula>0.6</formula>
+      <formula>0.74</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>